--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E617C84-4ECB-43A8-8F6F-2ED8D154DCA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A621B66-62C6-49B4-8869-1C139527E895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Tempo Stimato(Ottimale)</t>
+  </si>
+  <si>
+    <t>Naked Pairs</t>
+  </si>
+  <si>
+    <t>Hidden Pairs</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
-  <dimension ref="B3:H5"/>
+  <dimension ref="B3:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +463,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A621B66-62C6-49B4-8869-1C139527E895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67072A9-AFE3-438D-9201-8B215EE08F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Hidden Pairs</t>
+  </si>
+  <si>
+    <t>Tempo veritiero</t>
+  </si>
+  <si>
+    <t>7gg</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
-  <dimension ref="B3:H7"/>
+  <dimension ref="B3:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,9 +434,10 @@
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -443,8 +450,11 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -452,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -462,8 +472,11 @@
       <c r="H5" t="s">
         <v>7</v>
       </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -471,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67072A9-AFE3-438D-9201-8B215EE08F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8D52E8-CF5F-4313-920A-02B57194D0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -72,6 +72,39 @@
   </si>
   <si>
     <t>7gg</t>
+  </si>
+  <si>
+    <t>Motore risoluzione</t>
+  </si>
+  <si>
+    <t>1gg</t>
+  </si>
+  <si>
+    <t>2gg</t>
+  </si>
+  <si>
+    <t>FullExploration</t>
+  </si>
+  <si>
+    <t>4gg</t>
+  </si>
+  <si>
+    <t>Grafica</t>
+  </si>
+  <si>
+    <t>schermata puzzle</t>
+  </si>
+  <si>
+    <t>1sett.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liste utente </t>
+  </si>
+  <si>
+    <t>controllo errore</t>
+  </si>
+  <si>
+    <t>suggerimento</t>
   </si>
 </sst>
 </file>
@@ -423,16 +456,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
-  <dimension ref="B3:I7"/>
+  <dimension ref="B3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
@@ -464,32 +497,100 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8D52E8-CF5F-4313-920A-02B57194D0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1E4297-C206-45A0-85E7-783C89171D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -459,7 +459,7 @@
   <dimension ref="B3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,6 +577,9 @@
       <c r="H12" t="s">
         <v>15</v>
       </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1E4297-C206-45A0-85E7-783C89171D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A861D0-ECE8-4BF7-A7D4-A54FB3CC296D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
+    <workbookView xWindow="8700" yWindow="0" windowWidth="10185" windowHeight="10920" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>suggerimento</t>
+  </si>
+  <si>
+    <t>MatListOperation</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="B3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +562,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A861D0-ECE8-4BF7-A7D4-A54FB3CC296D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1805B82B-C462-4AAF-BBA5-C5C78B007CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="0" windowWidth="10185" windowHeight="10920" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>MatListOperation</t>
+  </si>
+  <si>
+    <t>3 gg</t>
+  </si>
+  <si>
+    <t>8gg</t>
   </si>
 </sst>
 </file>
@@ -461,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
   <dimension ref="B3:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +550,12 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -571,6 +583,12 @@
       </c>
       <c r="E10" t="s">
         <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1805B82B-C462-4AAF-BBA5-C5C78B007CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B6EDDF-6461-4AED-83EF-AFE74AA69017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -468,7 +468,7 @@
   <dimension ref="B3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,6 +617,9 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B6EDDF-6461-4AED-83EF-AFE74AA69017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B65689-8A2E-4210-8839-0D0ADEC75F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
+    <workbookView xWindow="8700" yWindow="0" windowWidth="10185" windowHeight="10920" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>8gg</t>
+  </si>
+  <si>
+    <t>caricamento vari Sudoku</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
-  <dimension ref="B3:I15"/>
+  <dimension ref="B3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
@@ -474,7 +477,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
@@ -625,10 +628,21 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B65689-8A2E-4210-8839-0D0ADEC75F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D5299-7873-4C6E-A207-B839F071C466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8700" yWindow="0" windowWidth="10185" windowHeight="10920" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -631,6 +631,9 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D5299-7873-4C6E-A207-B839F071C466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EC33F7-2A21-4BC8-B323-17712FB4B880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="0" windowWidth="10185" windowHeight="10920" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -471,7 +471,7 @@
   <dimension ref="B3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,9 +567,6 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EC33F7-2A21-4BC8-B323-17712FB4B880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6377738A-2E18-4E5A-8E2A-35F6180C68A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
+    <workbookView xWindow="8700" yWindow="0" windowWidth="10185" windowHeight="10920" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -471,7 +471,7 @@
   <dimension ref="B3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,18 +617,12 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
         <v>5</v>
       </c>
     </row>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6377738A-2E18-4E5A-8E2A-35F6180C68A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAAA2A0-3A70-46D3-B664-4FB6E0965399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="0" windowWidth="10185" windowHeight="10920" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>caricamento vari Sudoku</t>
+  </si>
+  <si>
+    <t>3gg.</t>
   </si>
 </sst>
 </file>
@@ -470,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
   <dimension ref="B3:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,6 +620,15 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAAA2A0-3A70-46D3-B664-4FB6E0965399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA773C-84BF-451C-88E1-138B1BF5AB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
+    <workbookView xWindow="8700" yWindow="0" windowWidth="10185" windowHeight="10920" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -101,9 +101,6 @@
     <t xml:space="preserve">liste utente </t>
   </si>
   <si>
-    <t>controllo errore</t>
-  </si>
-  <si>
     <t>suggerimento</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>3gg.</t>
+  </si>
+  <si>
+    <t>controllo errori</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
   <dimension ref="B3:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -557,10 +557,10 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
         <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -627,28 +627,40 @@
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA773C-84BF-451C-88E1-138B1BF5AB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6335C45B-1B52-47BD-8B4D-2EADB6ABB92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="0" windowWidth="10185" windowHeight="10920" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
-  <dimension ref="B3:I16"/>
+  <dimension ref="B3:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,46 +620,46 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
       <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="H13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6335C45B-1B52-47BD-8B4D-2EADB6ABB92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692F621B-6302-4DE1-B365-B60888A37634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -95,12 +95,6 @@
     <t>schermata puzzle</t>
   </si>
   <si>
-    <t>1sett.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste utente </t>
-  </si>
-  <si>
     <t>suggerimento</t>
   </si>
   <si>
@@ -116,10 +110,34 @@
     <t>caricamento vari Sudoku</t>
   </si>
   <si>
-    <t>3gg.</t>
-  </si>
-  <si>
     <t>controllo errori</t>
+  </si>
+  <si>
+    <t>scrittura liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gioco utente </t>
+  </si>
+  <si>
+    <t>scrittura numeri</t>
+  </si>
+  <si>
+    <t>3sett.</t>
+  </si>
+  <si>
+    <t>visione numeri</t>
+  </si>
+  <si>
+    <t>2sett.</t>
+  </si>
+  <si>
+    <t>bottone undo</t>
+  </si>
+  <si>
+    <t>livelli difficoltà</t>
+  </si>
+  <si>
+    <t>aggiornamento liste</t>
   </si>
 </sst>
 </file>
@@ -471,195 +489,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
-  <dimension ref="B3:I17"/>
+  <dimension ref="B3:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K25" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692F621B-6302-4DE1-B365-B60888A37634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4662FEB-C67F-4A0D-A0CF-95CBA1DC17CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
   <dimension ref="B3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4662FEB-C67F-4A0D-A0CF-95CBA1DC17CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8E6716-7072-4F2C-969A-9A9F88F3D68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -110,9 +110,6 @@
     <t>caricamento vari Sudoku</t>
   </si>
   <si>
-    <t>controllo errori</t>
-  </si>
-  <si>
     <t>scrittura liste</t>
   </si>
   <si>
@@ -138,6 +135,12 @@
   </si>
   <si>
     <t>aggiornamento liste</t>
+  </si>
+  <si>
+    <t>controlli sulla scrittura dei numeri</t>
+  </si>
+  <si>
+    <t>ConfirmDialog di fine gioco</t>
   </si>
 </sst>
 </file>
@@ -491,15 +494,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
   <dimension ref="B3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
@@ -619,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -638,7 +641,10 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -647,12 +653,12 @@
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
@@ -660,7 +666,7 @@
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -668,7 +674,7 @@
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -676,7 +682,7 @@
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -684,7 +690,7 @@
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
@@ -692,15 +698,23 @@
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>25</v>
+      <c r="D23" t="s">
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8E6716-7072-4F2C-969A-9A9F88F3D68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A30BED0-E3BA-4697-BE19-F8AC419BF2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
-  <dimension ref="B3:K25"/>
+  <dimension ref="B3:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,33 +682,33 @@
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -719,29 +719,31 @@
       <c r="F23" t="s">
         <v>5</v>
       </c>
-      <c r="J23" t="s">
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
         <v>14</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K24" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
         <v>14</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K26" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A30BED0-E3BA-4697-BE19-F8AC419BF2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3C1440-DA0A-4BBD-A12B-E0A99BF44920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -137,10 +137,7 @@
     <t>aggiornamento liste</t>
   </si>
   <si>
-    <t>controlli sulla scrittura dei numeri</t>
-  </si>
-  <si>
-    <t>ConfirmDialog di fine gioco</t>
+    <t>controlli sulla scrittura dei numeri/liste e MessageDialog fine gioco</t>
   </si>
 </sst>
 </file>
@@ -494,15 +491,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
   <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
@@ -712,22 +709,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="J24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3C1440-DA0A-4BBD-A12B-E0A99BF44920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F55A14-DA7F-4C30-B96E-C1D3AFF4431B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>8gg</t>
   </si>
   <si>
-    <t>caricamento vari Sudoku</t>
-  </si>
-  <si>
     <t>scrittura liste</t>
   </si>
   <si>
@@ -137,7 +134,10 @@
     <t>aggiornamento liste</t>
   </si>
   <si>
-    <t>controlli sulla scrittura dei numeri/liste e MessageDialog fine gioco</t>
+    <t>interfaccia e caricamento vari Sudoku</t>
+  </si>
+  <si>
+    <t>controlli sulla scrittura dei numeri e MessageDialog fine gioco</t>
   </si>
 </sst>
 </file>
@@ -491,15 +491,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
   <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -650,12 +650,12 @@
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F55A14-DA7F-4C30-B96E-C1D3AFF4431B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C589BC-C28C-4677-8867-5992F341F7B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -492,14 +492,14 @@
   <dimension ref="B3:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C589BC-C28C-4677-8867-5992F341F7B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B384DFC-3E0F-415A-8891-7E4211A2D841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -134,10 +134,10 @@
     <t>aggiornamento liste</t>
   </si>
   <si>
-    <t>interfaccia e caricamento vari Sudoku</t>
-  </si>
-  <si>
     <t>controlli sulla scrittura dei numeri e MessageDialog fine gioco</t>
+  </si>
+  <si>
+    <t>interfaccia di caricamento vari Sudoku</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
   <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="K26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B384DFC-3E0F-415A-8891-7E4211A2D841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F31558-655A-4F7F-B5BD-667D2024436C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
   <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F31558-655A-4F7F-B5BD-667D2024436C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7611AC96-3073-4892-97B2-B4082A742569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4955FB27-693F-426D-8282-B29FF1F7ECAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Algoritmi Risoluzione</t>
   </si>
@@ -134,10 +134,13 @@
     <t>aggiornamento liste</t>
   </si>
   <si>
-    <t>controlli sulla scrittura dei numeri e MessageDialog fine gioco</t>
-  </si>
-  <si>
     <t>interfaccia di caricamento vari Sudoku</t>
+  </si>
+  <si>
+    <t>controlli sulla scrittura dei numeri</t>
+  </si>
+  <si>
+    <t>gestione fine gioco e MessageDialog</t>
   </si>
 </sst>
 </file>
@@ -491,15 +494,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE372D-A862-4253-9190-BE15448DD5CF}">
   <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
@@ -679,7 +682,7 @@
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
@@ -709,6 +712,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
@@ -716,7 +730,7 @@
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C8913-3A2E-4BDF-9FAF-2F538E92184D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636E3DD7-B4AC-40E6-B019-5EF96EA12AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>Zandoli</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>controlli sulla scrittura dei numeri</t>
-  </si>
-  <si>
-    <t>bottone undo</t>
   </si>
   <si>
     <t>aggiornamento liste</t>
@@ -490,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K26"/>
+  <dimension ref="B3:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +623,7 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -685,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
         <v>9</v>
@@ -714,12 +711,15 @@
       <c r="G20" t="s">
         <v>8</v>
       </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -727,18 +727,18 @@
       <c r="D22" t="s">
         <v>32</v>
       </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
       <c r="G22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H24" t="s">
         <v>8</v>
       </c>
     </row>
@@ -746,21 +746,13 @@
       <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="H25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
         <v>19</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K25" t="s">
         <v>12</v>
       </c>
     </row>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C8913-3A2E-4BDF-9FAF-2F538E92184D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D72557A-7070-4091-B5DA-EBB957C5375E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Zandoli</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>3gg.</t>
+  </si>
+  <si>
+    <t>5gg</t>
   </si>
 </sst>
 </file>
@@ -492,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,10 +761,10 @@
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D72557A-7070-4091-B5DA-EBB957C5375E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC9863-7D02-421B-8DDB-74FEABBCBE23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Zandoli</t>
   </si>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +730,9 @@
       <c r="D22" t="s">
         <v>32</v>
       </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
       <c r="G22" t="s">
         <v>8</v>
       </c>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC9863-7D02-421B-8DDB-74FEABBCBE23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B642A7-5C6B-4A28-B098-03C8D6C4D886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Zandoli</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>3gg.</t>
-  </si>
-  <si>
-    <t>5gg</t>
   </si>
 </sst>
 </file>
@@ -495,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="K26" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B642A7-5C6B-4A28-B098-03C8D6C4D886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94779913-6E02-4876-97C5-B80E0DABAD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>Zandoli</t>
   </si>
@@ -493,7 +493,7 @@
   <dimension ref="B3:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,8 +730,11 @@
       <c r="F22" t="s">
         <v>8</v>
       </c>
-      <c r="G22" t="s">
-        <v>8</v>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94779913-6E02-4876-97C5-B80E0DABAD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77BDD59-E37F-463D-8919-F14D121ADCDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Zandoli</t>
   </si>
@@ -117,9 +117,6 @@
     <t>controlli sulla scrittura dei numeri</t>
   </si>
   <si>
-    <t>bottone undo</t>
-  </si>
-  <si>
     <t>aggiornamento liste</t>
   </si>
   <si>
@@ -139,6 +136,15 @@
   </si>
   <si>
     <t>3gg.</t>
+  </si>
+  <si>
+    <t>punteggio e tempo</t>
+  </si>
+  <si>
+    <t>5gg</t>
+  </si>
+  <si>
+    <t>salvataggio gioco</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K26"/>
+  <dimension ref="B3:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +632,7 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -685,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
         <v>9</v>
@@ -714,13 +720,28 @@
       <c r="G20" t="s">
         <v>8</v>
       </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="H21" t="s">
-        <v>8</v>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
@@ -730,43 +751,48 @@
       <c r="F22" t="s">
         <v>8</v>
       </c>
-      <c r="J22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" t="s">
-        <v>19</v>
+      <c r="G22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s">
-        <v>8</v>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
         <v>9</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K27" t="s">
         <v>10</v>
       </c>
     </row>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77BDD59-E37F-463D-8919-F14D121ADCDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1357D005-3A9E-46D1-845F-EA0D5096BAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Zandoli</t>
   </si>
@@ -144,7 +144,7 @@
     <t>5gg</t>
   </si>
   <si>
-    <t>salvataggio gioco</t>
+    <t>salvataggio gioco e load gioco</t>
   </si>
 </sst>
 </file>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,6 +773,12 @@
       <c r="D24" t="s">
         <v>39</v>
       </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1357D005-3A9E-46D1-845F-EA0D5096BAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAEF7BC-ECE5-4A0C-A266-38B832E02921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>Zandoli</t>
   </si>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,6 +712,12 @@
       <c r="F19" t="s">
         <v>8</v>
       </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
@@ -779,6 +785,12 @@
       <c r="G24" t="s">
         <v>8</v>
       </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -799,7 +811,7 @@
         <v>9</v>
       </c>
       <c r="K27" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAEF7BC-ECE5-4A0C-A266-38B832E02921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935509B2-AE31-43F9-B933-0F1162944F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>suggerimento</t>
   </si>
   <si>
-    <t>interfaccia di caricamento vari Sudoku</t>
-  </si>
-  <si>
     <t>4sett.</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>salvataggio gioco e load gioco</t>
+  </si>
+  <si>
+    <t>interfaccia di caricamento Sudoku e filechooser</t>
   </si>
 </sst>
 </file>
@@ -498,15 +498,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
@@ -632,7 +632,7 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
         <v>9</v>
@@ -733,7 +733,7 @@
         <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -811,7 +811,7 @@
         <v>9</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935509B2-AE31-43F9-B933-0F1162944F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84632F12-F430-4BDD-98A4-D9BCE6F0984C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>Zandoli</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>interfaccia di caricamento Sudoku e filechooser</t>
+  </si>
+  <si>
+    <t>risoluzione gioco</t>
   </si>
 </sst>
 </file>
@@ -496,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K27"/>
+  <dimension ref="B3:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,25 +795,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
         <v>37</v>
       </c>
     </row>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\UNIBO-Magistrale\ProgettoScala\Sudoku-Scala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84632F12-F430-4BDD-98A4-D9BCE6F0984C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90608D8-5622-4B1E-9CFC-C40A9EF6E670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>Zandoli</t>
   </si>
@@ -144,10 +144,13 @@
     <t>salvataggio gioco e load gioco</t>
   </si>
   <si>
-    <t>interfaccia di caricamento Sudoku e filechooser</t>
-  </si>
-  <si>
     <t>risoluzione gioco</t>
+  </si>
+  <si>
+    <t>FileChooser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interfaccia di caricamento vari Sudoku </t>
   </si>
 </sst>
 </file>
@@ -499,17 +502,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K28"/>
+  <dimension ref="B3:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
@@ -797,7 +800,7 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -813,7 +816,7 @@
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -823,6 +826,14 @@
       </c>
       <c r="K28" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90608D8-5622-4B1E-9CFC-C40A9EF6E670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680A254B-F4F3-4EA2-9ACF-03C8416CEE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>Zandoli</t>
   </si>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
@@ -834,6 +834,12 @@
       </c>
       <c r="F29" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680A254B-F4F3-4EA2-9ACF-03C8416CEE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B30F52-DCDB-4C47-8DF5-D95F90FBBFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>Zandoli</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t xml:space="preserve">interfaccia di caricamento vari Sudoku </t>
+  </si>
+  <si>
+    <t>Sudoku in prolog e Engine</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K29"/>
+  <dimension ref="B3:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,6 +845,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B30F52-DCDB-4C47-8DF5-D95F90FBBFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509008B-23BB-4E8B-AE4A-304DA0582CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509008B-23BB-4E8B-AE4A-304DA0582CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED0F05-7873-4821-9062-DE3C4E556261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>Zandoli</t>
   </si>
@@ -153,7 +153,10 @@
     <t xml:space="preserve">interfaccia di caricamento vari Sudoku </t>
   </si>
   <si>
-    <t>Sudoku in prolog e Engine</t>
+    <t>Parte Prolog</t>
+  </si>
+  <si>
+    <t>Sudoku in Prolog e Engine with tests</t>
   </si>
 </sst>
 </file>
@@ -505,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K30"/>
+  <dimension ref="B3:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>27</v>
       </c>
@@ -706,7 +709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>28</v>
       </c>
@@ -714,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -728,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>30</v>
       </c>
@@ -745,7 +748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>31</v>
       </c>
@@ -759,7 +762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>32</v>
       </c>
@@ -770,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>36</v>
       </c>
@@ -784,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>38</v>
       </c>
@@ -801,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>39</v>
       </c>
@@ -809,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -817,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>41</v>
       </c>
@@ -831,7 +834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>40</v>
       </c>
@@ -845,20 +848,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" t="s">
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" t="s">
         <v>9</v>
       </c>
     </row>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED0F05-7873-4821-9062-DE3C4E556261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6954C29A-2B0E-4BAE-8417-F724045070BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
   <si>
     <t>Zandoli</t>
   </si>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K31"/>
+  <dimension ref="B3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,25 +848,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>43</v>
       </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
         <v>9</v>
       </c>
     </row>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Desktop\progettoSudoku\progettoSudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6954C29A-2B0E-4BAE-8417-F724045070BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FB94E3-6573-40D3-98F1-595BA17C2EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>Zandoli</t>
   </si>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,6 +772,12 @@
       <c r="G22" t="s">
         <v>8</v>
       </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
